--- a/Performer bot/Data/Config.xlsx
+++ b/Performer bot/Data/Config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1Files\UPProjects\Squarenine\Performer\Reusable with RE Framework\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BE4693-2148-4267-B08A-24D92DB571A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18510" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -134,9 +140,6 @@
     <t>Location of PAID bucket manifest zip</t>
   </si>
   <si>
-    <t>Orchestrator queue Name.</t>
-  </si>
-  <si>
     <t>SharePointUser</t>
   </si>
   <si>
@@ -146,9 +149,6 @@
     <t>SharePointPass</t>
   </si>
   <si>
-    <t>pPb9zDrkb38</t>
-  </si>
-  <si>
     <t>_nycgrm.printbot@ad.insidemedia.net</t>
   </si>
   <si>
@@ -167,23 +167,41 @@
     <t>Path of folder where zip fiile get stored</t>
   </si>
   <si>
-    <t>C:\Users\skore\Desktop\Compile\Manual\</t>
-  </si>
-  <si>
     <t>TableName</t>
   </si>
   <si>
-    <t>test_usa_squarenine_data</t>
-  </si>
-  <si>
-    <t>RE_S9_Queue</t>
+    <t>OutputFALogFilePath</t>
+  </si>
+  <si>
+    <t>SharePointURL</t>
+  </si>
+  <si>
+    <t>S9_SharePoint_URL</t>
+  </si>
+  <si>
+    <t>SharePointLogin</t>
+  </si>
+  <si>
+    <t>Dev_S9_Queue</t>
+  </si>
+  <si>
+    <t>C:\Users\Sandip.Kore-s\Documents\S9\Compile\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchestrator queue Name. </t>
+  </si>
+  <si>
+    <t>usa_squarenine_data</t>
+  </si>
+  <si>
+    <t>s7ZX2F267Q_F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -214,6 +232,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,12 +255,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -250,12 +274,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -559,18 +586,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -623,7 +650,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30">
@@ -642,7 +669,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -652,8 +679,8 @@
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>49</v>
+      <c r="B5" t="s">
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -663,8 +690,8 @@
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>49</v>
+      <c r="B6" t="s">
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -674,8 +701,8 @@
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>49</v>
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -683,58 +710,82 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="B16" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1723,10 +1774,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2833,7 +2886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
